--- a/cicekler.xlsx
+++ b/cicekler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasin\Desktop\Tkinter GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D19A655-BE79-4FAA-AC6A-2B165F58E189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5352F569-CCD8-4B9F-8521-357EAB07B2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="5175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="14">
   <si>
     <t>Gül</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>boy</t>
+  </si>
+  <si>
+    <t>Ortalama</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,6 +1689,342 @@
         <v>6</v>
       </c>
     </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
